--- a/data/moh/weekly-infectious-disease-bulletin-year-2020.xlsx
+++ b/data/moh/weekly-infectious-disease-bulletin-year-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC522B6-B872-4025-972B-7FA17CAE7FF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BD2478D-43F7-4D74-95BA-32E1F621A031}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3389,9 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3708,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="AP3" s="5">
-        <v>3841.5</v>
+        <v>3842</v>
       </c>
       <c r="AQ3" s="5">
-        <v>125.25</v>
+        <v>125</v>
       </c>
       <c r="AR3" s="5">
-        <v>639.75</v>
+        <v>640</v>
       </c>
       <c r="AS3" s="5">
         <v>21</v>
@@ -3845,16 +3843,16 @@
         <v>0</v>
       </c>
       <c r="AP4" s="5">
-        <v>3585.090909090909</v>
+        <v>3585</v>
       </c>
       <c r="AQ4" s="5">
         <v>108</v>
       </c>
       <c r="AR4" s="5">
-        <v>604.18181818181813</v>
+        <v>604</v>
       </c>
       <c r="AS4" s="5">
-        <v>16.181818181818183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.25">
@@ -3982,16 +3980,16 @@
         <v>0</v>
       </c>
       <c r="AP5" s="5">
-        <v>3707.818181818182</v>
+        <v>3708</v>
       </c>
       <c r="AQ5" s="5">
-        <v>105.81818181818181</v>
+        <v>106</v>
       </c>
       <c r="AR5" s="5">
-        <v>589.4545454545455</v>
+        <v>589</v>
       </c>
       <c r="AS5" s="5">
-        <v>15.090909090909092</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.25">
@@ -4119,16 +4117,16 @@
         <v>1</v>
       </c>
       <c r="AP6" s="5">
-        <v>3810.6666666666665</v>
+        <v>3811</v>
       </c>
       <c r="AQ6" s="5">
-        <v>96.666666666666671</v>
+        <v>97</v>
       </c>
       <c r="AR6" s="5">
-        <v>625.55555555555554</v>
+        <v>626</v>
       </c>
       <c r="AS6" s="5">
-        <v>12.666666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
@@ -4256,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="AP7" s="5">
-        <v>4728.4444444444443</v>
+        <v>4728</v>
       </c>
       <c r="AQ7" s="5">
-        <v>82.888888888888886</v>
+        <v>83</v>
       </c>
       <c r="AR7" s="5">
-        <v>540.66666666666663</v>
+        <v>541</v>
       </c>
       <c r="AS7" s="5">
-        <v>15.555555555555555</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
@@ -4393,16 +4391,16 @@
         <v>1</v>
       </c>
       <c r="AP8" s="5">
-        <v>3791.4545454545455</v>
+        <v>3791</v>
       </c>
       <c r="AQ8" s="5">
-        <v>83.63636363636364</v>
+        <v>84</v>
       </c>
       <c r="AR8" s="5">
-        <v>538.5454545454545</v>
+        <v>539</v>
       </c>
       <c r="AS8" s="5">
-        <v>10.909090909090908</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
@@ -4530,16 +4528,16 @@
         <v>0</v>
       </c>
       <c r="AP9" s="5">
-        <v>3149.818181818182</v>
+        <v>3150</v>
       </c>
       <c r="AQ9" s="5">
-        <v>63.454545454545453</v>
+        <v>63</v>
       </c>
       <c r="AR9" s="5">
-        <v>431.09090909090907</v>
+        <v>431</v>
       </c>
       <c r="AS9" s="5">
-        <v>10.909090909090908</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
@@ -4667,16 +4665,16 @@
         <v>0</v>
       </c>
       <c r="AP10" s="5">
-        <v>2825.818181818182</v>
+        <v>2826</v>
       </c>
       <c r="AQ10" s="5">
-        <v>82.545454545454547</v>
+        <v>83</v>
       </c>
       <c r="AR10" s="5">
-        <v>406.54545454545456</v>
+        <v>407</v>
       </c>
       <c r="AS10" s="5">
-        <v>9.0909090909090917</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
@@ -4804,16 +4802,16 @@
         <v>0</v>
       </c>
       <c r="AP11" s="5">
-        <v>2473.090909090909</v>
+        <v>2473</v>
       </c>
       <c r="AQ11" s="5">
-        <v>63.454545454545453</v>
+        <v>63</v>
       </c>
       <c r="AR11" s="5">
-        <v>404.18181818181819</v>
+        <v>404</v>
       </c>
       <c r="AS11" s="5">
-        <v>10.727272727272727</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
@@ -4941,16 +4939,16 @@
         <v>0</v>
       </c>
       <c r="AP12" s="5">
-        <v>2317.090909090909</v>
+        <v>2317</v>
       </c>
       <c r="AQ12" s="5">
-        <v>65.090909090909093</v>
+        <v>65</v>
       </c>
       <c r="AR12" s="5">
-        <v>398.72727272727275</v>
+        <v>399</v>
       </c>
       <c r="AS12" s="5">
-        <v>10.545454545454545</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
@@ -5078,16 +5076,16 @@
         <v>1</v>
       </c>
       <c r="AP13" s="5">
-        <v>2288.181818181818</v>
+        <v>2288</v>
       </c>
       <c r="AQ13" s="5">
-        <v>56.363636363636367</v>
+        <v>56</v>
       </c>
       <c r="AR13" s="5">
-        <v>368.90909090909093</v>
+        <v>369</v>
       </c>
       <c r="AS13" s="5">
-        <v>7.8181818181818183</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.25">
@@ -5218,13 +5216,13 @@
         <v>2378</v>
       </c>
       <c r="AQ14" s="5">
-        <v>46.18181818181818</v>
+        <v>46</v>
       </c>
       <c r="AR14" s="5">
-        <v>367.45454545454544</v>
+        <v>367</v>
       </c>
       <c r="AS14" s="5">
-        <v>5.4545454545454541</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.25">
@@ -5352,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="AP15" s="5">
-        <v>2592.181818181818</v>
+        <v>2592</v>
       </c>
       <c r="AQ15" s="5">
         <v>50</v>
       </c>
       <c r="AR15" s="5">
-        <v>344.18181818181819</v>
+        <v>344</v>
       </c>
       <c r="AS15" s="5">
-        <v>6.1818181818181817</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.25">
@@ -5489,16 +5487,16 @@
         <v>0</v>
       </c>
       <c r="AP16" s="5">
-        <v>2064.5454545454545</v>
+        <v>2065</v>
       </c>
       <c r="AQ16" s="5">
-        <v>45.454545454545453</v>
+        <v>45</v>
       </c>
       <c r="AR16" s="5">
-        <v>258.72727272727275</v>
+        <v>259</v>
       </c>
       <c r="AS16" s="5">
-        <v>6.1818181818181817</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
@@ -5626,16 +5624,16 @@
         <v>0</v>
       </c>
       <c r="AP17" s="5">
-        <v>1557.7777777777778</v>
+        <v>1558</v>
       </c>
       <c r="AQ17" s="5">
-        <v>37.555555555555557</v>
+        <v>38</v>
       </c>
       <c r="AR17" s="5">
-        <v>179.11111111111111</v>
+        <v>179</v>
       </c>
       <c r="AS17" s="5">
-        <v>5.333333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:45" x14ac:dyDescent="0.25">
@@ -5763,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="5">
-        <v>1120.7272727272727</v>
+        <v>1121</v>
       </c>
       <c r="AQ18" s="5">
         <v>32</v>
@@ -5772,7 +5770,7 @@
         <v>140</v>
       </c>
       <c r="AS18" s="5">
-        <v>3.0909090909090908</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:45" x14ac:dyDescent="0.25">
@@ -5900,16 +5898,16 @@
         <v>0</v>
       </c>
       <c r="AP19" s="5">
-        <v>834.5454545454545</v>
+        <v>835</v>
       </c>
       <c r="AQ19" s="5">
-        <v>34.18181818181818</v>
+        <v>34</v>
       </c>
       <c r="AR19" s="5">
-        <v>135.45454545454547</v>
+        <v>135</v>
       </c>
       <c r="AS19" s="5">
-        <v>2.9090909090909092</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
@@ -6037,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AP20" s="5">
-        <v>682.88888888888891</v>
+        <v>683</v>
       </c>
       <c r="AQ20" s="5">
         <v>36</v>
@@ -6046,7 +6044,7 @@
         <v>140</v>
       </c>
       <c r="AS20" s="5">
-        <v>3.1111111111111112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
@@ -6174,16 +6172,16 @@
         <v>0</v>
       </c>
       <c r="AP21" s="5">
-        <v>619.55555555555554</v>
+        <v>620</v>
       </c>
       <c r="AQ21" s="5">
-        <v>34.888888888888886</v>
+        <v>35</v>
       </c>
       <c r="AR21" s="5">
-        <v>148.44444444444446</v>
+        <v>148</v>
       </c>
       <c r="AS21" s="5">
-        <v>2.8888888888888888</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
@@ -6311,16 +6309,16 @@
         <v>0</v>
       </c>
       <c r="AP22" s="5">
-        <v>575.4545454545455</v>
+        <v>575</v>
       </c>
       <c r="AQ22" s="5">
-        <v>32.545454545454547</v>
+        <v>33</v>
       </c>
       <c r="AR22" s="5">
-        <v>141.09090909090909</v>
+        <v>141</v>
       </c>
       <c r="AS22" s="5">
-        <v>2.9090909090909092</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
@@ -6448,16 +6446,16 @@
         <v>0</v>
       </c>
       <c r="AP23" s="5">
-        <v>504.90909090909093</v>
+        <v>505</v>
       </c>
       <c r="AQ23" s="5">
-        <v>32.18181818181818</v>
+        <v>32</v>
       </c>
       <c r="AR23" s="5">
-        <v>152.72727272727272</v>
+        <v>153</v>
       </c>
       <c r="AS23" s="5">
-        <v>1.2727272727272727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
@@ -6585,16 +6583,16 @@
         <v>0</v>
       </c>
       <c r="AP24" s="5">
-        <v>571.11111111111109</v>
+        <v>571</v>
       </c>
       <c r="AQ24" s="5">
-        <v>35.777777777777779</v>
+        <v>36</v>
       </c>
       <c r="AR24" s="5">
-        <v>141.11111111111111</v>
+        <v>141</v>
       </c>
       <c r="AS24" s="5">
-        <v>2.2222222222222223</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
@@ -6722,16 +6720,16 @@
         <v>1</v>
       </c>
       <c r="AP25" s="5">
-        <v>268.18181818181819</v>
+        <v>268</v>
       </c>
       <c r="AQ25" s="5">
-        <v>18.181818181818183</v>
+        <v>18</v>
       </c>
       <c r="AR25" s="5">
-        <v>54.727272727272727</v>
+        <v>55</v>
       </c>
       <c r="AS25" s="5">
-        <v>1.2727272727272727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
@@ -6859,16 +6857,16 @@
         <v>0</v>
       </c>
       <c r="AP26" s="5">
-        <v>839.4545454545455</v>
+        <v>839</v>
       </c>
       <c r="AQ26" s="5">
-        <v>39.81818181818182</v>
+        <v>40</v>
       </c>
       <c r="AR26" s="5">
-        <v>199.45454545454547</v>
+        <v>199</v>
       </c>
       <c r="AS26" s="5">
-        <v>1.2727272727272727</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
@@ -6996,16 +6994,16 @@
         <v>0</v>
       </c>
       <c r="AP27" s="5">
-        <v>808.18181818181813</v>
+        <v>808</v>
       </c>
       <c r="AQ27" s="5">
         <v>40</v>
       </c>
       <c r="AR27" s="5">
-        <v>216.18181818181819</v>
+        <v>216</v>
       </c>
       <c r="AS27" s="5">
-        <v>2.1818181818181817</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
@@ -7133,16 +7131,16 @@
         <v>0</v>
       </c>
       <c r="AP28" s="5">
-        <v>828.72727272727275</v>
+        <v>829</v>
       </c>
       <c r="AQ28" s="5">
-        <v>48.363636363636367</v>
+        <v>48</v>
       </c>
       <c r="AR28" s="5">
-        <v>261.09090909090907</v>
+        <v>261</v>
       </c>
       <c r="AS28" s="5">
-        <v>2.3636363636363638</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
@@ -7270,16 +7268,16 @@
         <v>0</v>
       </c>
       <c r="AP29" s="5">
-        <v>858.90909090909088</v>
+        <v>859</v>
       </c>
       <c r="AQ29" s="5">
-        <v>47.636363636363633</v>
+        <v>48</v>
       </c>
       <c r="AR29" s="5">
-        <v>291.63636363636363</v>
+        <v>292</v>
       </c>
       <c r="AS29" s="5">
-        <v>3.4545454545454546</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
@@ -7407,16 +7405,16 @@
         <v>0</v>
       </c>
       <c r="AP30" s="5">
-        <v>662.5454545454545</v>
+        <v>663</v>
       </c>
       <c r="AQ30" s="5">
-        <v>37.272727272727273</v>
+        <v>37</v>
       </c>
       <c r="AR30" s="5">
-        <v>233.27272727272728</v>
+        <v>233</v>
       </c>
       <c r="AS30" s="5">
-        <v>3.2727272727272729</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
@@ -7454,7 +7452,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="M31" s="3">
         <v>4</v>
@@ -7487,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" s="3">
         <v>0</v>
@@ -7520,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AI31" s="3">
         <v>0</v>
@@ -7544,16 +7542,16 @@
         <v>0</v>
       </c>
       <c r="AP31" s="5">
-        <v>871.09090909090912</v>
+        <v>871</v>
       </c>
       <c r="AQ31" s="5">
-        <v>48.18181818181818</v>
+        <v>48</v>
       </c>
       <c r="AR31" s="5">
-        <v>308.18181818181819</v>
+        <v>308</v>
       </c>
       <c r="AS31" s="5">
-        <v>4.9090909090909092</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
@@ -7566,48 +7564,132 @@
       <c r="C32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1791</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>7</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>2</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>11</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>30</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="5">
+        <v>709</v>
+      </c>
+      <c r="AQ32" s="5">
+        <v>48</v>
+      </c>
+      <c r="AR32" s="5">
+        <v>285</v>
+      </c>
+      <c r="AS32" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
